--- a/phpexcel_test/demo_333.xlsx
+++ b/phpexcel_test/demo_333.xlsx
@@ -192,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -215,6 +215,9 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -675,69 +678,78 @@
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:62">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="G5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="8">
+        <v>10</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:62">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="G6" t="s">
+      <c r="G6" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:62">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="G7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="8">
+        <v>2</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:62">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="G8" t="s">
+      <c r="G8" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:62">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="G9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="2">
-        <v>10</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="G9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="8">
+        <v>10</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="8">
         <v>4</v>
       </c>
     </row>
@@ -748,9 +760,12 @@
       <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
       <c r="BJ10">
         <v>8</v>
       </c>
@@ -758,62 +773,68 @@
     <row r="11" spans="1:62">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="G11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="2">
-        <v>10</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="2">
+      <c r="G11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="8">
+        <v>10</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:62">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="G12" t="s">
+      <c r="G12" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:62">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="G13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="2">
-        <v>2</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="2">
+      <c r="G13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="8">
+        <v>2</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:62">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="G14" t="s">
+      <c r="G14" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:62">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
-      <c r="G15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="2">
-        <v>10</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="2">
+      <c r="G15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="8">
+        <v>10</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="8">
         <v>4</v>
       </c>
     </row>
@@ -824,114 +845,132 @@
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="W16" t="s">
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="W16" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
     </row>
     <row r="17" spans="1:62">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="K17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="2">
-        <v>10</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N17" s="2">
-        <v>4</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X17" s="2">
-        <v>10</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z17" s="2">
+      <c r="K17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="8">
+        <v>10</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="8">
+        <v>4</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="X17" s="8">
+        <v>10</v>
+      </c>
+      <c r="Y17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z17" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:62">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="K18" t="s">
+      <c r="K18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="W18" t="s">
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="W18" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
     </row>
     <row r="19" spans="1:62">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="K19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="2">
-        <v>2</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N19" s="2">
-        <v>2</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X19" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z19" s="2">
+      <c r="K19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="8">
+        <v>2</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="8">
+        <v>2</v>
+      </c>
+      <c r="W19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="X19" s="8">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z19" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:62">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-      <c r="K20" t="s">
+      <c r="K20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="W20" t="s">
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="W20" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
     </row>
     <row r="21" spans="1:62">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
-      <c r="K21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="2">
-        <v>10</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N21" s="2">
-        <v>4</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X21" s="2">
-        <v>10</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z21" s="2">
+      <c r="K21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="8">
+        <v>10</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="8">
+        <v>4</v>
+      </c>
+      <c r="W21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="X21" s="8">
+        <v>10</v>
+      </c>
+      <c r="Y21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z21" s="8">
         <v>4</v>
       </c>
     </row>
@@ -942,12 +981,18 @@
       <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="S22" t="s">
+      <c r="S22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="AE22" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
       <c r="BJ22">
         <v>8</v>
       </c>
@@ -955,104 +1000,116 @@
     <row r="23" spans="1:62">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
-      <c r="S23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T23" s="2">
-        <v>10</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V23" s="2">
-        <v>4</v>
-      </c>
-      <c r="AE23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF23" s="2">
-        <v>10</v>
-      </c>
-      <c r="AG23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH23" s="2">
+      <c r="S23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T23" s="8">
+        <v>10</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="V23" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF23" s="8">
+        <v>10</v>
+      </c>
+      <c r="AG23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH23" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:62">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
-      <c r="S24" t="s">
+      <c r="S24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="AE24" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
     </row>
     <row r="25" spans="1:62">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="S25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T25" s="2">
-        <v>2</v>
-      </c>
-      <c r="U25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V25" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF25" s="2">
-        <v>2</v>
-      </c>
-      <c r="AG25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH25" s="2">
+      <c r="S25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T25" s="8">
+        <v>2</v>
+      </c>
+      <c r="U25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="V25" s="8">
+        <v>2</v>
+      </c>
+      <c r="AE25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF25" s="8">
+        <v>2</v>
+      </c>
+      <c r="AG25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH25" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:62">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="S26" t="s">
+      <c r="S26" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="AE26" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
     </row>
     <row r="27" spans="1:62">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
-      <c r="S27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T27" s="2">
-        <v>10</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V27" s="2">
-        <v>4</v>
-      </c>
-      <c r="AE27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF27" s="2">
-        <v>10</v>
-      </c>
-      <c r="AG27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH27" s="2">
+      <c r="S27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T27" s="8">
+        <v>10</v>
+      </c>
+      <c r="U27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="V27" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF27" s="8">
+        <v>10</v>
+      </c>
+      <c r="AG27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH27" s="8">
         <v>4</v>
       </c>
     </row>

--- a/phpexcel_test/demo_333.xlsx
+++ b/phpexcel_test/demo_333.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>工地狀況查詢</t>
   </si>
@@ -53,12 +53,18 @@
     <t>09</t>
   </si>
   <si>
+    <t>合計</t>
+  </si>
+  <si>
     <t>台積電</t>
   </si>
   <si>
     <t>電工A組小隊</t>
   </si>
   <si>
+    <t>總時數:8</t>
+  </si>
+  <si>
     <t>人數</t>
   </si>
   <si>
@@ -81,9 +87,6 @@
   </si>
   <si>
     <t>聯發科</t>
-  </si>
-  <si>
-    <t>合計</t>
   </si>
   <si>
     <t>總人數</t>
@@ -135,7 +138,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +151,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7FDBFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD700"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -192,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -208,13 +217,16 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -519,19 +531,61 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BJ29"/>
+  <dimension ref="A1:AR29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="20" customWidth="true" style="0"/>
-    <col min="18" max="18" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8" customWidth="true" style="0"/>
+    <col min="13" max="13" width="8" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8" customWidth="true" style="0"/>
+    <col min="6" max="6" width="8" customWidth="true" style="0"/>
+    <col min="7" max="7" width="8" customWidth="true" style="0"/>
+    <col min="8" max="8" width="8" customWidth="true" style="0"/>
+    <col min="9" max="9" width="8" customWidth="true" style="0"/>
+    <col min="10" max="10" width="8" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8" customWidth="true" style="0"/>
+    <col min="12" max="12" width="8" customWidth="true" style="0"/>
+    <col min="14" max="14" width="8" customWidth="true" style="0"/>
+    <col min="15" max="15" width="8" customWidth="true" style="0"/>
+    <col min="16" max="16" width="8" customWidth="true" style="0"/>
+    <col min="17" max="17" width="8" customWidth="true" style="0"/>
+    <col min="18" max="18" width="8" customWidth="true" style="0"/>
+    <col min="19" max="19" width="8" customWidth="true" style="0"/>
+    <col min="20" max="20" width="8" customWidth="true" style="0"/>
+    <col min="21" max="21" width="8" customWidth="true" style="0"/>
+    <col min="22" max="22" width="8" customWidth="true" style="0"/>
+    <col min="23" max="23" width="8" customWidth="true" style="0"/>
+    <col min="24" max="24" width="8" customWidth="true" style="0"/>
+    <col min="25" max="25" width="8" customWidth="true" style="0"/>
+    <col min="26" max="26" width="8" customWidth="true" style="0"/>
+    <col min="27" max="27" width="8" customWidth="true" style="0"/>
+    <col min="28" max="28" width="8" customWidth="true" style="0"/>
+    <col min="29" max="29" width="8" customWidth="true" style="0"/>
+    <col min="30" max="30" width="8" customWidth="true" style="0"/>
+    <col min="31" max="31" width="8" customWidth="true" style="0"/>
+    <col min="32" max="32" width="8" customWidth="true" style="0"/>
+    <col min="33" max="33" width="8" customWidth="true" style="0"/>
+    <col min="34" max="34" width="8" customWidth="true" style="0"/>
+    <col min="35" max="35" width="8" customWidth="true" style="0"/>
+    <col min="36" max="36" width="8" customWidth="true" style="0"/>
+    <col min="37" max="37" width="8" customWidth="true" style="0"/>
+    <col min="38" max="38" width="8" customWidth="true" style="0"/>
+    <col min="39" max="39" width="8" customWidth="true" style="0"/>
+    <col min="40" max="40" width="8" customWidth="true" style="0"/>
+    <col min="41" max="41" width="8" customWidth="true" style="0"/>
+    <col min="42" max="42" width="8" customWidth="true" style="0"/>
+    <col min="43" max="43" width="8" customWidth="true" style="0"/>
+    <col min="44" max="44" width="8" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" customHeight="1" ht="20">
+    <row r="1" spans="1:44" customHeight="1" ht="20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,13 +601,8 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:62" customHeight="1" ht="20">
+    </row>
+    <row r="2" spans="1:44" customHeight="1" ht="20">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -567,13 +616,8 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:62">
+    </row>
+    <row r="3" spans="1:44">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -596,14 +640,14 @@
         <v>5</v>
       </c>
       <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="M3" s="3"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
-      <c r="R3" s="3"/>
+      <c r="R3" s="4"/>
       <c r="S3" s="4" t="s">
         <v>7</v>
       </c>
@@ -640,545 +684,503 @@
       <c r="AN3" s="4"/>
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
-      <c r="AQ3" s="4">
-        <v>11</v>
-      </c>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4">
+      <c r="AQ3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4">
+    </row>
+    <row r="4" spans="1:44">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4">
+      <c r="G4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="BD3" s="4"/>
-      <c r="BE3" s="4"/>
-      <c r="BF3" s="4"/>
-      <c r="BG3" s="4">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="AQ4" t="s">
         <v>15</v>
       </c>
-      <c r="BH3" s="4"/>
-      <c r="BI3" s="4"/>
-      <c r="BJ3" s="4"/>
-    </row>
-    <row r="4" spans="1:62">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="G5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="9">
+        <v>10</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="G6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="G7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="9">
+        <v>2</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="G8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="G9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="9">
+        <v>10</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:44">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="G11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="9">
+        <v>10</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="G12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:44">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="G13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="9">
+        <v>2</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="G14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:44">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="G15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="9">
+        <v>10</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44">
+      <c r="A16" s="6">
+        <v>3</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="W16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AQ16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="K17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="9">
+        <v>10</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="9">
+        <v>4</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="X17" s="9">
+        <v>10</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="K18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="W18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+    </row>
+    <row r="19" spans="1:44">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="K19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="9">
+        <v>2</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="9">
+        <v>2</v>
+      </c>
+      <c r="W19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="X19" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="K20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="W20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+    </row>
+    <row r="21" spans="1:44">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="K21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="9">
+        <v>10</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="9">
+        <v>4</v>
+      </c>
+      <c r="W21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" s="9">
+        <v>10</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z21" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44">
+      <c r="A22" s="6">
+        <v>4</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="AE22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AQ22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="S23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="T23" s="9">
+        <v>10</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V23" s="9">
+        <v>4</v>
+      </c>
+      <c r="AE23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF23" s="9">
+        <v>10</v>
+      </c>
+      <c r="AG23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH23" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="S24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="AE24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+    </row>
+    <row r="25" spans="1:44">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="S25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="T25" s="9">
+        <v>2</v>
+      </c>
+      <c r="U25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V25" s="9">
+        <v>2</v>
+      </c>
+      <c r="AE25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF25" s="9">
+        <v>2</v>
+      </c>
+      <c r="AG25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH25" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="S26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="AE26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+    </row>
+    <row r="27" spans="1:44">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="S27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="T27" s="9">
+        <v>10</v>
+      </c>
+      <c r="U27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V27" s="9">
+        <v>4</v>
+      </c>
+      <c r="AE27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF27" s="9">
+        <v>10</v>
+      </c>
+      <c r="AG27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH27" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44">
+      <c r="A28" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:62">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="G5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="8">
-        <v>10</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:62">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="G6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:62">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="G7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="8">
-        <v>2</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:62">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="G8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:62">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="G9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="8">
-        <v>10</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:62">
-      <c r="A10" s="5">
-        <v>2</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="BJ10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:62">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="G11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="8">
-        <v>10</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:62">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="G12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:62">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="G13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="8">
-        <v>2</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:62">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="G14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:62">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="G15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="8">
-        <v>10</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:62">
-      <c r="A16" s="5">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="W16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-    </row>
-    <row r="17" spans="1:62">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="K17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="8">
-        <v>10</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N17" s="8">
-        <v>4</v>
-      </c>
-      <c r="W17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="X17" s="8">
-        <v>10</v>
-      </c>
-      <c r="Y17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z17" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:62">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="K18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="W18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-    </row>
-    <row r="19" spans="1:62">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="K19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="8">
-        <v>2</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N19" s="8">
-        <v>2</v>
-      </c>
-      <c r="W19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="X19" s="8">
-        <v>2</v>
-      </c>
-      <c r="Y19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z19" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:62">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="K20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="W20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-    </row>
-    <row r="21" spans="1:62">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="K21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="8">
-        <v>10</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N21" s="8">
-        <v>4</v>
-      </c>
-      <c r="W21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="X21" s="8">
-        <v>10</v>
-      </c>
-      <c r="Y21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z21" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:62">
-      <c r="A22" s="5">
-        <v>4</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="AE22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
-      <c r="BJ22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:62">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="S23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T23" s="8">
-        <v>10</v>
-      </c>
-      <c r="U23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="V23" s="8">
-        <v>4</v>
-      </c>
-      <c r="AE23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF23" s="8">
-        <v>10</v>
-      </c>
-      <c r="AG23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH23" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:62">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="S24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="AE24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="8"/>
-    </row>
-    <row r="25" spans="1:62">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="S25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T25" s="8">
-        <v>2</v>
-      </c>
-      <c r="U25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="V25" s="8">
-        <v>2</v>
-      </c>
-      <c r="AE25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF25" s="8">
-        <v>2</v>
-      </c>
-      <c r="AG25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH25" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:62">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="S26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="AE26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF26" s="8"/>
-      <c r="AG26" s="8"/>
-      <c r="AH26" s="8"/>
-    </row>
-    <row r="27" spans="1:62">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="S27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T27" s="8">
-        <v>10</v>
-      </c>
-      <c r="U27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="V27" s="8">
-        <v>4</v>
-      </c>
-      <c r="AE27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF27" s="8">
-        <v>10</v>
-      </c>
-      <c r="AG27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH27" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:62">
-      <c r="A28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="6">
+      <c r="B28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="7">
         <v>0</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="7">
         <v>0</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="7">
         <v>0</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="7">
         <v>0</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="7">
         <v>0</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="7">
         <v>0</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="7">
         <v>0</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="7">
         <v>0</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="7">
         <v>0</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="7">
         <v>0</v>
       </c>
-      <c r="M28" s="6">
-        <v>0</v>
-      </c>
-      <c r="N28" s="6">
-        <v>0</v>
-      </c>
-      <c r="O28" s="6">
-        <v>0</v>
-      </c>
-      <c r="P28" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>0</v>
-      </c>
-      <c r="BJ28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:62">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7" t="s">
-        <v>24</v>
+    </row>
+    <row r="29" spans="1:44">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="A1:M2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="K3:N3"/>
@@ -1189,11 +1191,6 @@
     <mergeCell ref="AE3:AH3"/>
     <mergeCell ref="AI3:AL3"/>
     <mergeCell ref="AM3:AP3"/>
-    <mergeCell ref="AQ3:AT3"/>
-    <mergeCell ref="AU3:AX3"/>
-    <mergeCell ref="AY3:BB3"/>
-    <mergeCell ref="BC3:BF3"/>
-    <mergeCell ref="BG3:BJ3"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="A10:A15"/>

--- a/phpexcel_test/demo_333.xlsx
+++ b/phpexcel_test/demo_333.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>工地狀況查詢</t>
   </si>
@@ -59,34 +59,43 @@
     <t>台積電</t>
   </si>
   <si>
+    <t>電工C組小隊</t>
+  </si>
+  <si>
+    <t>總時數:3</t>
+  </si>
+  <si>
+    <t>人數</t>
+  </si>
+  <si>
+    <t>工數</t>
+  </si>
+  <si>
+    <t>被支援移工</t>
+  </si>
+  <si>
+    <t>被支援外調</t>
+  </si>
+  <si>
+    <t>華碩</t>
+  </si>
+  <si>
     <t>電工A組小隊</t>
   </si>
   <si>
-    <t>總時數:8</t>
-  </si>
-  <si>
-    <t>人數</t>
-  </si>
-  <si>
-    <t>工數</t>
-  </si>
-  <si>
-    <t>被支援移工</t>
-  </si>
-  <si>
-    <t>被支援外調</t>
-  </si>
-  <si>
-    <t>華碩</t>
-  </si>
-  <si>
-    <t>電工C組小隊</t>
+    <t>總時數:33</t>
   </si>
   <si>
     <t>台達電</t>
   </si>
   <si>
+    <t>總時數:12</t>
+  </si>
+  <si>
     <t>聯發科</t>
+  </si>
+  <si>
+    <t>總時數:15</t>
   </si>
   <si>
     <t>總人數</t>
@@ -712,13 +721,13 @@
         <v>16</v>
       </c>
       <c r="H5" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:44">
@@ -738,13 +747,13 @@
         <v>16</v>
       </c>
       <c r="H7" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:44">
@@ -764,13 +773,13 @@
         <v>16</v>
       </c>
       <c r="H9" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -780,79 +789,190 @@
       <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="AQ10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:44">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="G11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="9">
-        <v>10</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="9">
-        <v>4</v>
+      <c r="K11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="9">
+        <v>2</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="9">
+        <v>2</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" s="9">
+        <v>3</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" s="9">
+        <v>6</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V11" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:44">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="G12" s="9" t="s">
+      <c r="K12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
     </row>
     <row r="13" spans="1:44">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
-      <c r="G13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="9">
+      <c r="K13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="9">
         <v>2</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="9">
+      <c r="M13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="9">
         <v>2</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="9">
+        <v>3</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" s="9">
+        <v>6</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V13" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:44">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="G14" s="9" t="s">
+      <c r="K14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
     </row>
     <row r="15" spans="1:44">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="G15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="9">
-        <v>10</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="9">
-        <v>4</v>
+      <c r="K15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="9">
+        <v>2</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="9">
+        <v>2</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="9">
+        <v>3</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="T15" s="9">
+        <v>6</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V15" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:44">
@@ -860,44 +980,26 @@
         <v>3</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+        <v>23</v>
+      </c>
       <c r="W16" s="9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
       <c r="AQ16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:44">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="K17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="9">
-        <v>10</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N17" s="9">
+      <c r="W17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="X17" s="9">
         <v>4</v>
-      </c>
-      <c r="W17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="X17" s="9">
-        <v>10</v>
       </c>
       <c r="Y17" s="9" t="s">
         <v>17</v>
@@ -909,12 +1011,6 @@
     <row r="18" spans="1:44">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="K18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
       <c r="W18" s="9" t="s">
         <v>18</v>
       </c>
@@ -925,40 +1021,22 @@
     <row r="19" spans="1:44">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="K19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="9">
-        <v>2</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" s="9">
-        <v>2</v>
-      </c>
       <c r="W19" s="9" t="s">
         <v>16</v>
       </c>
       <c r="X19" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="Z19" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:44">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="K20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
       <c r="W20" s="9" t="s">
         <v>19</v>
       </c>
@@ -969,23 +1047,11 @@
     <row r="21" spans="1:44">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="K21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="9">
-        <v>10</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N21" s="9">
+      <c r="W21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" s="9">
         <v>4</v>
-      </c>
-      <c r="W21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="X21" s="9">
-        <v>10</v>
       </c>
       <c r="Y21" s="9" t="s">
         <v>17</v>
@@ -999,61 +1065,37 @@
         <v>4</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
+        <v>25</v>
+      </c>
       <c r="AE22" s="9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AF22" s="9"/>
       <c r="AG22" s="9"/>
       <c r="AH22" s="9"/>
       <c r="AQ22" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:44">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="S23" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T23" s="9">
-        <v>10</v>
-      </c>
-      <c r="U23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="V23" s="9">
-        <v>4</v>
-      </c>
       <c r="AE23" s="9" t="s">
         <v>16</v>
       </c>
       <c r="AF23" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AG23" s="9" t="s">
         <v>17</v>
       </c>
       <c r="AH23" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:44">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="S24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
       <c r="AE24" s="9" t="s">
         <v>18</v>
       </c>
@@ -1064,40 +1106,22 @@
     <row r="25" spans="1:44">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="S25" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T25" s="9">
-        <v>2</v>
-      </c>
-      <c r="U25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="V25" s="9">
-        <v>2</v>
-      </c>
       <c r="AE25" s="9" t="s">
         <v>16</v>
       </c>
       <c r="AF25" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG25" s="9" t="s">
         <v>17</v>
       </c>
       <c r="AH25" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:44">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="S26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
       <c r="AE26" s="9" t="s">
         <v>19</v>
       </c>
@@ -1108,29 +1132,17 @@
     <row r="27" spans="1:44">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="S27" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T27" s="9">
-        <v>10</v>
-      </c>
-      <c r="U27" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="V27" s="9">
-        <v>4</v>
-      </c>
       <c r="AE27" s="9" t="s">
         <v>16</v>
       </c>
       <c r="AF27" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AG27" s="9" t="s">
         <v>17</v>
       </c>
       <c r="AH27" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:44">
@@ -1138,7 +1150,7 @@
         <v>12</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -1174,7 +1186,7 @@
     <row r="29" spans="1:44">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1203,15 +1215,15 @@
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="O14:R14"/>
     <mergeCell ref="W16:Z16"/>
     <mergeCell ref="W18:Z18"/>
     <mergeCell ref="W20:Z20"/>

--- a/phpexcel_test/demo_333.xlsx
+++ b/phpexcel_test/demo_333.xlsx
@@ -62,7 +62,8 @@
     <t>電工C組小隊</t>
   </si>
   <si>
-    <t>總時數:3</t>
+    <t>總時數:3
+ 總工數:3</t>
   </si>
   <si>
     <t>人數</t>
@@ -83,19 +84,22 @@
     <t>電工A組小隊</t>
   </si>
   <si>
-    <t>總時數:33</t>
+    <t>總時數:33
+ 總工數:33</t>
   </si>
   <si>
     <t>台達電</t>
   </si>
   <si>
-    <t>總時數:12</t>
+    <t>總時數:12
+ 總工數:12</t>
   </si>
   <si>
     <t>聯發科</t>
   </si>
   <si>
-    <t>總時數:15</t>
+    <t>總時數:15
+ 總工數:15</t>
   </si>
   <si>
     <t>總人數</t>
@@ -176,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border/>
     <border>
       <left style="thin">
@@ -206,11 +210,25 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -232,13 +250,16 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -543,55 +564,55 @@
   <dimension ref="A1:AR29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="AM29" sqref="AM29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="8" customWidth="true" style="0"/>
-    <col min="13" max="13" width="8" customWidth="true" style="0"/>
-    <col min="1" max="1" width="8" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8" customWidth="true" style="0"/>
-    <col min="6" max="6" width="8" customWidth="true" style="0"/>
-    <col min="7" max="7" width="8" customWidth="true" style="0"/>
-    <col min="8" max="8" width="8" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8" customWidth="true" style="0"/>
-    <col min="11" max="11" width="8" customWidth="true" style="0"/>
-    <col min="12" max="12" width="8" customWidth="true" style="0"/>
-    <col min="14" max="14" width="8" customWidth="true" style="0"/>
-    <col min="15" max="15" width="8" customWidth="true" style="0"/>
-    <col min="16" max="16" width="8" customWidth="true" style="0"/>
-    <col min="17" max="17" width="8" customWidth="true" style="0"/>
-    <col min="18" max="18" width="8" customWidth="true" style="0"/>
-    <col min="19" max="19" width="8" customWidth="true" style="0"/>
-    <col min="20" max="20" width="8" customWidth="true" style="0"/>
-    <col min="21" max="21" width="8" customWidth="true" style="0"/>
-    <col min="22" max="22" width="8" customWidth="true" style="0"/>
-    <col min="23" max="23" width="8" customWidth="true" style="0"/>
-    <col min="24" max="24" width="8" customWidth="true" style="0"/>
-    <col min="25" max="25" width="8" customWidth="true" style="0"/>
-    <col min="26" max="26" width="8" customWidth="true" style="0"/>
-    <col min="27" max="27" width="8" customWidth="true" style="0"/>
-    <col min="28" max="28" width="8" customWidth="true" style="0"/>
-    <col min="29" max="29" width="8" customWidth="true" style="0"/>
-    <col min="30" max="30" width="8" customWidth="true" style="0"/>
-    <col min="31" max="31" width="8" customWidth="true" style="0"/>
-    <col min="32" max="32" width="8" customWidth="true" style="0"/>
-    <col min="33" max="33" width="8" customWidth="true" style="0"/>
-    <col min="34" max="34" width="8" customWidth="true" style="0"/>
-    <col min="35" max="35" width="8" customWidth="true" style="0"/>
-    <col min="36" max="36" width="8" customWidth="true" style="0"/>
-    <col min="37" max="37" width="8" customWidth="true" style="0"/>
-    <col min="38" max="38" width="8" customWidth="true" style="0"/>
-    <col min="39" max="39" width="8" customWidth="true" style="0"/>
-    <col min="40" max="40" width="8" customWidth="true" style="0"/>
-    <col min="41" max="41" width="8" customWidth="true" style="0"/>
-    <col min="42" max="42" width="8" customWidth="true" style="0"/>
-    <col min="43" max="43" width="8" customWidth="true" style="0"/>
-    <col min="44" max="44" width="8" customWidth="true" style="0"/>
+    <col min="13" max="13" width="6" customWidth="true" style="0"/>
+    <col min="1" max="1" width="6" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="6" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6" customWidth="true" style="0"/>
+    <col min="6" max="6" width="6" customWidth="true" style="0"/>
+    <col min="7" max="7" width="6" customWidth="true" style="0"/>
+    <col min="8" max="8" width="6" customWidth="true" style="0"/>
+    <col min="9" max="9" width="6" customWidth="true" style="0"/>
+    <col min="10" max="10" width="6" customWidth="true" style="0"/>
+    <col min="11" max="11" width="6" customWidth="true" style="0"/>
+    <col min="12" max="12" width="6" customWidth="true" style="0"/>
+    <col min="14" max="14" width="6" customWidth="true" style="0"/>
+    <col min="15" max="15" width="6" customWidth="true" style="0"/>
+    <col min="16" max="16" width="6" customWidth="true" style="0"/>
+    <col min="17" max="17" width="6" customWidth="true" style="0"/>
+    <col min="18" max="18" width="6" customWidth="true" style="0"/>
+    <col min="19" max="19" width="6" customWidth="true" style="0"/>
+    <col min="20" max="20" width="6" customWidth="true" style="0"/>
+    <col min="21" max="21" width="6" customWidth="true" style="0"/>
+    <col min="22" max="22" width="6" customWidth="true" style="0"/>
+    <col min="23" max="23" width="6" customWidth="true" style="0"/>
+    <col min="24" max="24" width="6" customWidth="true" style="0"/>
+    <col min="25" max="25" width="6" customWidth="true" style="0"/>
+    <col min="26" max="26" width="6" customWidth="true" style="0"/>
+    <col min="27" max="27" width="6" customWidth="true" style="0"/>
+    <col min="28" max="28" width="6" customWidth="true" style="0"/>
+    <col min="29" max="29" width="6" customWidth="true" style="0"/>
+    <col min="30" max="30" width="6" customWidth="true" style="0"/>
+    <col min="31" max="31" width="6" customWidth="true" style="0"/>
+    <col min="32" max="32" width="6" customWidth="true" style="0"/>
+    <col min="33" max="33" width="6" customWidth="true" style="0"/>
+    <col min="34" max="34" width="6" customWidth="true" style="0"/>
+    <col min="35" max="35" width="6" customWidth="true" style="0"/>
+    <col min="36" max="36" width="6" customWidth="true" style="0"/>
+    <col min="37" max="37" width="6" customWidth="true" style="0"/>
+    <col min="38" max="38" width="6" customWidth="true" style="0"/>
+    <col min="39" max="39" width="6" customWidth="true" style="0"/>
+    <col min="40" max="40" width="6" customWidth="true" style="0"/>
+    <col min="41" max="41" width="6" customWidth="true" style="0"/>
+    <col min="42" max="42" width="6" customWidth="true" style="0"/>
+    <col min="43" max="43" width="10" customWidth="true" style="0"/>
+    <col min="44" max="44" width="6" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" customHeight="1" ht="20">
@@ -704,83 +725,88 @@
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="AQ4" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="AQ4" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:44">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="G5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="G5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="8">
         <v>1</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="9">
+      <c r="I5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="8">
         <v>1</v>
       </c>
+      <c r="AQ5" s="8"/>
     </row>
     <row r="6" spans="1:44">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="AQ6" s="8"/>
     </row>
     <row r="7" spans="1:44">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="G7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="G7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8">
         <v>1</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="9">
+      <c r="I7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="8">
         <v>1</v>
       </c>
+      <c r="AQ7" s="8"/>
     </row>
     <row r="8" spans="1:44">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="AQ8" s="8"/>
     </row>
     <row r="9" spans="1:44">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="G9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="G9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="8">
         <v>1</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="9">
+      <c r="I9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="8">
         <v>1</v>
       </c>
+      <c r="AQ9" s="8"/>
     </row>
     <row r="10" spans="1:44">
       <c r="A10" s="6">
@@ -789,191 +815,196 @@
       <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9" t="s">
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9" t="s">
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="AQ10" t="s">
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="AQ10" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:44">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="K11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="9">
+      <c r="K11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="8">
         <v>2</v>
       </c>
-      <c r="M11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="9">
+      <c r="M11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="8">
         <v>2</v>
       </c>
-      <c r="O11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" s="9">
+      <c r="O11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="8">
         <v>3</v>
       </c>
-      <c r="Q11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="R11" s="9">
+      <c r="Q11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" s="8">
         <v>3</v>
       </c>
-      <c r="S11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T11" s="9">
+      <c r="S11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" s="8">
         <v>6</v>
       </c>
-      <c r="U11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="V11" s="9">
+      <c r="U11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="V11" s="8">
         <v>6</v>
       </c>
+      <c r="AQ11" s="8"/>
     </row>
     <row r="12" spans="1:44">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9" t="s">
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9" t="s">
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="AQ12" s="8"/>
     </row>
     <row r="13" spans="1:44">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
-      <c r="K13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="9">
+      <c r="K13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="8">
         <v>2</v>
       </c>
-      <c r="M13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" s="9">
+      <c r="M13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="8">
         <v>2</v>
       </c>
-      <c r="O13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="P13" s="9">
+      <c r="O13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="8">
         <v>3</v>
       </c>
-      <c r="Q13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="R13" s="9">
+      <c r="Q13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="8">
         <v>3</v>
       </c>
-      <c r="S13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T13" s="9">
+      <c r="S13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" s="8">
         <v>6</v>
       </c>
-      <c r="U13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="V13" s="9">
+      <c r="U13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="V13" s="8">
         <v>6</v>
       </c>
+      <c r="AQ13" s="8"/>
     </row>
     <row r="14" spans="1:44">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9" t="s">
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9" t="s">
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="AQ14" s="8"/>
     </row>
     <row r="15" spans="1:44">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="K15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="9">
+      <c r="K15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="8">
         <v>2</v>
       </c>
-      <c r="M15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="9">
+      <c r="M15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="8">
         <v>2</v>
       </c>
-      <c r="O15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="9">
+      <c r="O15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="8">
         <v>3</v>
       </c>
-      <c r="Q15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="R15" s="9">
+      <c r="Q15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="8">
         <v>3</v>
       </c>
-      <c r="S15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T15" s="9">
+      <c r="S15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T15" s="8">
         <v>6</v>
       </c>
-      <c r="U15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="V15" s="9">
+      <c r="U15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="V15" s="8">
         <v>6</v>
       </c>
+      <c r="AQ15" s="8"/>
     </row>
     <row r="16" spans="1:44">
       <c r="A16" s="6">
@@ -982,83 +1013,88 @@
       <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="W16" s="9" t="s">
+      <c r="W16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AQ16" t="s">
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AQ16" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:44">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="W17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="X17" s="9">
+      <c r="W17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="X17" s="8">
         <v>4</v>
       </c>
-      <c r="Y17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z17" s="9">
+      <c r="Y17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z17" s="8">
         <v>4</v>
       </c>
+      <c r="AQ17" s="8"/>
     </row>
     <row r="18" spans="1:44">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="W18" s="9" t="s">
+      <c r="W18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AQ18" s="8"/>
     </row>
     <row r="19" spans="1:44">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="W19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="X19" s="9">
+      <c r="W19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="X19" s="8">
         <v>4</v>
       </c>
-      <c r="Y19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z19" s="9">
+      <c r="Y19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z19" s="8">
         <v>4</v>
       </c>
+      <c r="AQ19" s="8"/>
     </row>
     <row r="20" spans="1:44">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="W20" s="9" t="s">
+      <c r="W20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AQ20" s="8"/>
     </row>
     <row r="21" spans="1:44">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="W21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="X21" s="9">
+      <c r="W21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" s="8">
         <v>4</v>
       </c>
-      <c r="Y21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z21" s="9">
+      <c r="Y21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z21" s="8">
         <v>4</v>
       </c>
+      <c r="AQ21" s="8"/>
     </row>
     <row r="22" spans="1:44">
       <c r="A22" s="6">
@@ -1067,127 +1103,222 @@
       <c r="B22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AE22" s="9" t="s">
+      <c r="AE22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AQ22" t="s">
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AQ22" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:44">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="AE23" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF23" s="9">
+      <c r="AE23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF23" s="8">
         <v>5</v>
       </c>
-      <c r="AG23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH23" s="9">
+      <c r="AG23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH23" s="8">
         <v>5</v>
       </c>
+      <c r="AQ23" s="8"/>
     </row>
     <row r="24" spans="1:44">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="AE24" s="9" t="s">
+      <c r="AE24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AQ24" s="8"/>
     </row>
     <row r="25" spans="1:44">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="AE25" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF25" s="9">
+      <c r="AE25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF25" s="8">
         <v>5</v>
       </c>
-      <c r="AG25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH25" s="9">
+      <c r="AG25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH25" s="8">
         <v>5</v>
       </c>
+      <c r="AQ25" s="8"/>
     </row>
     <row r="26" spans="1:44">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="AE26" s="9" t="s">
+      <c r="AE26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AQ26" s="8"/>
     </row>
     <row r="27" spans="1:44">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="AE27" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF27" s="9">
+      <c r="AE27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF27" s="8">
         <v>5</v>
       </c>
-      <c r="AG27" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH27" s="9">
+      <c r="AG27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH27" s="8">
         <v>5</v>
       </c>
+      <c r="AQ27" s="8"/>
     </row>
     <row r="28" spans="1:44">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="10">
         <v>0</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10">
+        <v>3</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10">
+        <v>6</v>
+      </c>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10">
+        <v>9</v>
+      </c>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10">
+        <v>18</v>
+      </c>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10">
+        <v>12</v>
+      </c>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10">
         <v>0</v>
       </c>
-      <c r="E28" s="7">
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10">
+        <v>15</v>
+      </c>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10">
         <v>0</v>
       </c>
-      <c r="F28" s="7">
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10">
         <v>0</v>
       </c>
-      <c r="G28" s="7">
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
+      <c r="AP28" s="10"/>
+    </row>
+    <row r="29" spans="1:44">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="10">
         <v>0</v>
       </c>
-      <c r="H28" s="7">
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10">
+        <v>3</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10">
+        <v>6</v>
+      </c>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10">
+        <v>9</v>
+      </c>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10">
+        <v>18</v>
+      </c>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10">
+        <v>12</v>
+      </c>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10">
         <v>0</v>
       </c>
-      <c r="I28" s="7">
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10">
+        <v>15</v>
+      </c>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="10">
         <v>0</v>
       </c>
-      <c r="J28" s="7">
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="10">
         <v>0</v>
       </c>
-      <c r="K28" s="7">
-        <v>0</v>
-      </c>
-      <c r="L28" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:44">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="AN29" s="10"/>
+      <c r="AO29" s="10"/>
+      <c r="AP29" s="10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1215,6 +1346,7 @@
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="G8:J8"/>
+    <mergeCell ref="AQ4:AQ9"/>
     <mergeCell ref="K10:N10"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="K14:N14"/>
@@ -1224,12 +1356,35 @@
     <mergeCell ref="O10:R10"/>
     <mergeCell ref="O12:R12"/>
     <mergeCell ref="O14:R14"/>
+    <mergeCell ref="AQ10:AQ15"/>
     <mergeCell ref="W16:Z16"/>
     <mergeCell ref="W18:Z18"/>
     <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="AQ16:AQ21"/>
     <mergeCell ref="AE22:AH22"/>
     <mergeCell ref="AE24:AH24"/>
     <mergeCell ref="AE26:AH26"/>
+    <mergeCell ref="AQ22:AQ27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W28:Z28"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="AA28:AD28"/>
+    <mergeCell ref="AA29:AD29"/>
+    <mergeCell ref="AE28:AH28"/>
+    <mergeCell ref="AE29:AH29"/>
+    <mergeCell ref="AI28:AL28"/>
+    <mergeCell ref="AI29:AL29"/>
+    <mergeCell ref="AM28:AP28"/>
+    <mergeCell ref="AM29:AP29"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
